--- a/data/trans_bre/P1438_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1438_2023-Clase-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>2.043082146359156</v>
+        <v>2.043082146359154</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.5846451857979429</v>
+        <v>0.5846451857979421</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3184625602420743</v>
+        <v>-0.2717915941604164</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.1083384930670781</v>
+        <v>-0.07567206329148457</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.381542523324322</v>
+        <v>4.483556339020662</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1.731453095096232</v>
+        <v>1.929242229783691</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.227576475859508</v>
+        <v>1.140916932433584</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3631144021177613</v>
+        <v>0.3227469929043947</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.300767323773627</v>
+        <v>5.113363938197788</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.404888261950222</v>
+        <v>3.351791752552721</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>4.046056823613349</v>
+        <v>4.046056823613345</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.6237044919631782</v>
+        <v>0.6237044919631773</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2963031982895553</v>
+        <v>0.3890209925692981</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.03543154786017052</v>
+        <v>0.01234622455852115</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.030798845287165</v>
+        <v>8.377076501037797</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.566175420815853</v>
+        <v>1.624628799579116</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>1.419822153383611</v>
+        <v>1.419822153383612</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.2421329471081067</v>
+        <v>0.242132947108107</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.4466893873030627</v>
+        <v>-0.5515132997246697</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.0720832439257952</v>
+        <v>-0.08613286578960298</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.31873800088893</v>
+        <v>3.402031151803357</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6731570448888801</v>
+        <v>0.6839960358980829</v>
       </c>
     </row>
     <row r="16">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>7.025414691906623</v>
+        <v>7.025414691906626</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>1.239073694198884</v>
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.424866307066043</v>
+        <v>4.605500366754729</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.5828450688188069</v>
+        <v>0.6312997733760272</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.507404241361343</v>
+        <v>9.308653286485013</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2.185390167265969</v>
+        <v>2.349029875814428</v>
       </c>
     </row>
     <row r="19">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>8.262974509828465</v>
+        <v>8.262974509828467</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16.0925973758007</v>
+        <v>16.09259737580071</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.668220733000917</v>
+        <v>6.566853815129532</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>2.76644626456558</v>
+        <v>2.848616228251903</v>
       </c>
     </row>
     <row r="21">
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>9.991224230073112</v>
+        <v>10.35488831704084</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
     </row>
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.984646097032843</v>
+        <v>2.959177403181084</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.5719872975870935</v>
+        <v>0.5748510069900624</v>
       </c>
     </row>
     <row r="24">
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.87833120536917</v>
+        <v>4.923313067320699</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>1.186093389230898</v>
+        <v>1.194483810298971</v>
       </c>
     </row>
     <row r="25">
